--- a/Project_ESP32_MPU6050_DMP6/Data/FeatureExtract1Walk.xlsx
+++ b/Project_ESP32_MPU6050_DMP6/Data/FeatureExtract1Walk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MIoT_Device\Project\Project_ESP32_MPU6050_DMP6_DataGather\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MIoT_Project\Project_ESP32_MPU6050_DMP6\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545DFFCD-E1A6-4996-8492-2B3CC9848E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D58A4B-3F06-4B13-8C42-8924AE246A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6FB88E8A-03F1-4AC4-B8C3-21B0E345EDB0}"/>
   </bookViews>
@@ -7794,459 +7794,459 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$151</c:f>
+              <c:f>Sheet1!$B$2:$B$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
                 <c:pt idx="0">
-                  <c:v>50252</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50270</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50289</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50310</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50329</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50349</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50369</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50389</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50409</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50429</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50449</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50469</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50489</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50509</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50529</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50549</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50569</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50589</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50609</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50629</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50649</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50669</c:v>
+                  <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50689</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50709</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50729</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50749</c:v>
+                  <c:v>497</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50769</c:v>
+                  <c:v>517</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50789</c:v>
+                  <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50809</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50829</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>50849</c:v>
+                  <c:v>597</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50869</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50889</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50909</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50929</c:v>
+                  <c:v>677</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50949</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50969</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50989</c:v>
+                  <c:v>737</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51009</c:v>
+                  <c:v>757</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>51029</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>51049</c:v>
+                  <c:v>797</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>51069</c:v>
+                  <c:v>817</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>51089</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51109</c:v>
+                  <c:v>857</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>51129</c:v>
+                  <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>51149</c:v>
+                  <c:v>897</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>51169</c:v>
+                  <c:v>917</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>51189</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>51209</c:v>
+                  <c:v>957</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>51229</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51249</c:v>
+                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51269</c:v>
+                  <c:v>1017</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51289</c:v>
+                  <c:v>1037</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>51309</c:v>
+                  <c:v>1057</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>51329</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>51349</c:v>
+                  <c:v>1097</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51369</c:v>
+                  <c:v>1117</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>51389</c:v>
+                  <c:v>1137</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>51409</c:v>
+                  <c:v>1157</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>51429</c:v>
+                  <c:v>1177</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>51449</c:v>
+                  <c:v>1197</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>51469</c:v>
+                  <c:v>1217</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>51489</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>51509</c:v>
+                  <c:v>1257</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>51529</c:v>
+                  <c:v>1277</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>51549</c:v>
+                  <c:v>1297</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>51569</c:v>
+                  <c:v>1317</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>51589</c:v>
+                  <c:v>1337</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>51609</c:v>
+                  <c:v>1357</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>51629</c:v>
+                  <c:v>1377</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>51649</c:v>
+                  <c:v>1397</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>51669</c:v>
+                  <c:v>1417</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>51689</c:v>
+                  <c:v>1437</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>51709</c:v>
+                  <c:v>1457</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>51729</c:v>
+                  <c:v>1477</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>51749</c:v>
+                  <c:v>1497</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>51769</c:v>
+                  <c:v>1517</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>51789</c:v>
+                  <c:v>1537</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>51809</c:v>
+                  <c:v>1557</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>51829</c:v>
+                  <c:v>1577</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>51849</c:v>
+                  <c:v>1597</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>51869</c:v>
+                  <c:v>1617</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>51889</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>51909</c:v>
+                  <c:v>1657</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>51929</c:v>
+                  <c:v>1677</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>51949</c:v>
+                  <c:v>1697</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>51969</c:v>
+                  <c:v>1717</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>51989</c:v>
+                  <c:v>1737</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>52009</c:v>
+                  <c:v>1757</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>52029</c:v>
+                  <c:v>1777</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>52049</c:v>
+                  <c:v>1797</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>52069</c:v>
+                  <c:v>1817</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>52089</c:v>
+                  <c:v>1837</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>52109</c:v>
+                  <c:v>1857</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>52129</c:v>
+                  <c:v>1877</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>52149</c:v>
+                  <c:v>1897</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>52169</c:v>
+                  <c:v>1917</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>52189</c:v>
+                  <c:v>1937</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>52209</c:v>
+                  <c:v>1957</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>52229</c:v>
+                  <c:v>1977</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>52249</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>52269</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>52289</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>52309</c:v>
+                  <c:v>2057</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>52329</c:v>
+                  <c:v>2077</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>52349</c:v>
+                  <c:v>2097</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>52369</c:v>
+                  <c:v>2117</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>52389</c:v>
+                  <c:v>2137</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>52409</c:v>
+                  <c:v>2157</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>52429</c:v>
+                  <c:v>2177</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>52449</c:v>
+                  <c:v>2197</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>52469</c:v>
+                  <c:v>2217</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>52489</c:v>
+                  <c:v>2237</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>52509</c:v>
+                  <c:v>2257</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>52529</c:v>
+                  <c:v>2277</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>52549</c:v>
+                  <c:v>2297</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>52569</c:v>
+                  <c:v>2317</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>52589</c:v>
+                  <c:v>2337</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>52609</c:v>
+                  <c:v>2357</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>52629</c:v>
+                  <c:v>2377</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>52649</c:v>
+                  <c:v>2397</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>52669</c:v>
+                  <c:v>2417</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>52689</c:v>
+                  <c:v>2437</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>52709</c:v>
+                  <c:v>2457</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>52729</c:v>
+                  <c:v>2477</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>52749</c:v>
+                  <c:v>2497</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>52769</c:v>
+                  <c:v>2517</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>52789</c:v>
+                  <c:v>2537</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>52809</c:v>
+                  <c:v>2557</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>52829</c:v>
+                  <c:v>2577</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>52849</c:v>
+                  <c:v>2597</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>52869</c:v>
+                  <c:v>2617</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>52889</c:v>
+                  <c:v>2637</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>52909</c:v>
+                  <c:v>2657</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>52929</c:v>
+                  <c:v>2677</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>52949</c:v>
+                  <c:v>2697</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>52969</c:v>
+                  <c:v>2717</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>52989</c:v>
+                  <c:v>2737</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>53009</c:v>
+                  <c:v>2757</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>53029</c:v>
+                  <c:v>2777</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>53049</c:v>
+                  <c:v>2797</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>53069</c:v>
+                  <c:v>2817</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>53088</c:v>
+                  <c:v>2836</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>53108</c:v>
+                  <c:v>2856</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>53128</c:v>
+                  <c:v>2876</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>53148</c:v>
+                  <c:v>2896</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>53168</c:v>
+                  <c:v>2916</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>53188</c:v>
+                  <c:v>2936</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>53208</c:v>
+                  <c:v>2956</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>53228</c:v>
+                  <c:v>2976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8745,459 +8745,459 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$151</c:f>
+              <c:f>Sheet1!$B$2:$B$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
                 <c:pt idx="0">
-                  <c:v>50252</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50270</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50289</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50310</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50329</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50349</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50369</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50389</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50409</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50429</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50449</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50469</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50489</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50509</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50529</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50549</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50569</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50589</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50609</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50629</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50649</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50669</c:v>
+                  <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50689</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50709</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50729</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50749</c:v>
+                  <c:v>497</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50769</c:v>
+                  <c:v>517</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50789</c:v>
+                  <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50809</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50829</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>50849</c:v>
+                  <c:v>597</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50869</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50889</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50909</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50929</c:v>
+                  <c:v>677</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50949</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50969</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50989</c:v>
+                  <c:v>737</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51009</c:v>
+                  <c:v>757</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>51029</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>51049</c:v>
+                  <c:v>797</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>51069</c:v>
+                  <c:v>817</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>51089</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51109</c:v>
+                  <c:v>857</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>51129</c:v>
+                  <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>51149</c:v>
+                  <c:v>897</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>51169</c:v>
+                  <c:v>917</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>51189</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>51209</c:v>
+                  <c:v>957</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>51229</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51249</c:v>
+                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51269</c:v>
+                  <c:v>1017</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51289</c:v>
+                  <c:v>1037</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>51309</c:v>
+                  <c:v>1057</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>51329</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>51349</c:v>
+                  <c:v>1097</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51369</c:v>
+                  <c:v>1117</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>51389</c:v>
+                  <c:v>1137</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>51409</c:v>
+                  <c:v>1157</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>51429</c:v>
+                  <c:v>1177</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>51449</c:v>
+                  <c:v>1197</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>51469</c:v>
+                  <c:v>1217</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>51489</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>51509</c:v>
+                  <c:v>1257</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>51529</c:v>
+                  <c:v>1277</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>51549</c:v>
+                  <c:v>1297</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>51569</c:v>
+                  <c:v>1317</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>51589</c:v>
+                  <c:v>1337</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>51609</c:v>
+                  <c:v>1357</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>51629</c:v>
+                  <c:v>1377</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>51649</c:v>
+                  <c:v>1397</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>51669</c:v>
+                  <c:v>1417</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>51689</c:v>
+                  <c:v>1437</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>51709</c:v>
+                  <c:v>1457</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>51729</c:v>
+                  <c:v>1477</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>51749</c:v>
+                  <c:v>1497</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>51769</c:v>
+                  <c:v>1517</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>51789</c:v>
+                  <c:v>1537</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>51809</c:v>
+                  <c:v>1557</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>51829</c:v>
+                  <c:v>1577</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>51849</c:v>
+                  <c:v>1597</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>51869</c:v>
+                  <c:v>1617</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>51889</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>51909</c:v>
+                  <c:v>1657</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>51929</c:v>
+                  <c:v>1677</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>51949</c:v>
+                  <c:v>1697</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>51969</c:v>
+                  <c:v>1717</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>51989</c:v>
+                  <c:v>1737</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>52009</c:v>
+                  <c:v>1757</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>52029</c:v>
+                  <c:v>1777</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>52049</c:v>
+                  <c:v>1797</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>52069</c:v>
+                  <c:v>1817</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>52089</c:v>
+                  <c:v>1837</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>52109</c:v>
+                  <c:v>1857</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>52129</c:v>
+                  <c:v>1877</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>52149</c:v>
+                  <c:v>1897</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>52169</c:v>
+                  <c:v>1917</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>52189</c:v>
+                  <c:v>1937</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>52209</c:v>
+                  <c:v>1957</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>52229</c:v>
+                  <c:v>1977</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>52249</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>52269</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>52289</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>52309</c:v>
+                  <c:v>2057</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>52329</c:v>
+                  <c:v>2077</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>52349</c:v>
+                  <c:v>2097</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>52369</c:v>
+                  <c:v>2117</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>52389</c:v>
+                  <c:v>2137</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>52409</c:v>
+                  <c:v>2157</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>52429</c:v>
+                  <c:v>2177</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>52449</c:v>
+                  <c:v>2197</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>52469</c:v>
+                  <c:v>2217</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>52489</c:v>
+                  <c:v>2237</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>52509</c:v>
+                  <c:v>2257</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>52529</c:v>
+                  <c:v>2277</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>52549</c:v>
+                  <c:v>2297</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>52569</c:v>
+                  <c:v>2317</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>52589</c:v>
+                  <c:v>2337</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>52609</c:v>
+                  <c:v>2357</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>52629</c:v>
+                  <c:v>2377</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>52649</c:v>
+                  <c:v>2397</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>52669</c:v>
+                  <c:v>2417</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>52689</c:v>
+                  <c:v>2437</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>52709</c:v>
+                  <c:v>2457</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>52729</c:v>
+                  <c:v>2477</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>52749</c:v>
+                  <c:v>2497</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>52769</c:v>
+                  <c:v>2517</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>52789</c:v>
+                  <c:v>2537</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>52809</c:v>
+                  <c:v>2557</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>52829</c:v>
+                  <c:v>2577</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>52849</c:v>
+                  <c:v>2597</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>52869</c:v>
+                  <c:v>2617</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>52889</c:v>
+                  <c:v>2637</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>52909</c:v>
+                  <c:v>2657</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>52929</c:v>
+                  <c:v>2677</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>52949</c:v>
+                  <c:v>2697</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>52969</c:v>
+                  <c:v>2717</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>52989</c:v>
+                  <c:v>2737</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>53009</c:v>
+                  <c:v>2757</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>53029</c:v>
+                  <c:v>2777</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>53049</c:v>
+                  <c:v>2797</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>53069</c:v>
+                  <c:v>2817</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>53088</c:v>
+                  <c:v>2836</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>53108</c:v>
+                  <c:v>2856</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>53128</c:v>
+                  <c:v>2876</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>53148</c:v>
+                  <c:v>2896</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>53168</c:v>
+                  <c:v>2916</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>53188</c:v>
+                  <c:v>2936</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>53208</c:v>
+                  <c:v>2956</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>53228</c:v>
+                  <c:v>2976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9696,459 +9696,459 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$151</c:f>
+              <c:f>Sheet1!$B$2:$B$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
                 <c:pt idx="0">
-                  <c:v>50252</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50270</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50289</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50310</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50329</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50349</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50369</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50389</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50409</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50429</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50449</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50469</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50489</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50509</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50529</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50549</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50569</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50589</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50609</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50629</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50649</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50669</c:v>
+                  <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50689</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50709</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50729</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50749</c:v>
+                  <c:v>497</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50769</c:v>
+                  <c:v>517</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50789</c:v>
+                  <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50809</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50829</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>50849</c:v>
+                  <c:v>597</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50869</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50889</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50909</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50929</c:v>
+                  <c:v>677</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50949</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50969</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50989</c:v>
+                  <c:v>737</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51009</c:v>
+                  <c:v>757</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>51029</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>51049</c:v>
+                  <c:v>797</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>51069</c:v>
+                  <c:v>817</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>51089</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51109</c:v>
+                  <c:v>857</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>51129</c:v>
+                  <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>51149</c:v>
+                  <c:v>897</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>51169</c:v>
+                  <c:v>917</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>51189</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>51209</c:v>
+                  <c:v>957</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>51229</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51249</c:v>
+                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51269</c:v>
+                  <c:v>1017</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51289</c:v>
+                  <c:v>1037</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>51309</c:v>
+                  <c:v>1057</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>51329</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>51349</c:v>
+                  <c:v>1097</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51369</c:v>
+                  <c:v>1117</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>51389</c:v>
+                  <c:v>1137</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>51409</c:v>
+                  <c:v>1157</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>51429</c:v>
+                  <c:v>1177</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>51449</c:v>
+                  <c:v>1197</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>51469</c:v>
+                  <c:v>1217</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>51489</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>51509</c:v>
+                  <c:v>1257</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>51529</c:v>
+                  <c:v>1277</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>51549</c:v>
+                  <c:v>1297</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>51569</c:v>
+                  <c:v>1317</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>51589</c:v>
+                  <c:v>1337</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>51609</c:v>
+                  <c:v>1357</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>51629</c:v>
+                  <c:v>1377</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>51649</c:v>
+                  <c:v>1397</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>51669</c:v>
+                  <c:v>1417</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>51689</c:v>
+                  <c:v>1437</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>51709</c:v>
+                  <c:v>1457</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>51729</c:v>
+                  <c:v>1477</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>51749</c:v>
+                  <c:v>1497</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>51769</c:v>
+                  <c:v>1517</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>51789</c:v>
+                  <c:v>1537</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>51809</c:v>
+                  <c:v>1557</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>51829</c:v>
+                  <c:v>1577</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>51849</c:v>
+                  <c:v>1597</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>51869</c:v>
+                  <c:v>1617</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>51889</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>51909</c:v>
+                  <c:v>1657</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>51929</c:v>
+                  <c:v>1677</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>51949</c:v>
+                  <c:v>1697</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>51969</c:v>
+                  <c:v>1717</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>51989</c:v>
+                  <c:v>1737</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>52009</c:v>
+                  <c:v>1757</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>52029</c:v>
+                  <c:v>1777</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>52049</c:v>
+                  <c:v>1797</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>52069</c:v>
+                  <c:v>1817</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>52089</c:v>
+                  <c:v>1837</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>52109</c:v>
+                  <c:v>1857</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>52129</c:v>
+                  <c:v>1877</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>52149</c:v>
+                  <c:v>1897</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>52169</c:v>
+                  <c:v>1917</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>52189</c:v>
+                  <c:v>1937</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>52209</c:v>
+                  <c:v>1957</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>52229</c:v>
+                  <c:v>1977</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>52249</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>52269</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>52289</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>52309</c:v>
+                  <c:v>2057</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>52329</c:v>
+                  <c:v>2077</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>52349</c:v>
+                  <c:v>2097</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>52369</c:v>
+                  <c:v>2117</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>52389</c:v>
+                  <c:v>2137</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>52409</c:v>
+                  <c:v>2157</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>52429</c:v>
+                  <c:v>2177</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>52449</c:v>
+                  <c:v>2197</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>52469</c:v>
+                  <c:v>2217</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>52489</c:v>
+                  <c:v>2237</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>52509</c:v>
+                  <c:v>2257</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>52529</c:v>
+                  <c:v>2277</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>52549</c:v>
+                  <c:v>2297</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>52569</c:v>
+                  <c:v>2317</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>52589</c:v>
+                  <c:v>2337</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>52609</c:v>
+                  <c:v>2357</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>52629</c:v>
+                  <c:v>2377</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>52649</c:v>
+                  <c:v>2397</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>52669</c:v>
+                  <c:v>2417</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>52689</c:v>
+                  <c:v>2437</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>52709</c:v>
+                  <c:v>2457</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>52729</c:v>
+                  <c:v>2477</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>52749</c:v>
+                  <c:v>2497</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>52769</c:v>
+                  <c:v>2517</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>52789</c:v>
+                  <c:v>2537</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>52809</c:v>
+                  <c:v>2557</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>52829</c:v>
+                  <c:v>2577</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>52849</c:v>
+                  <c:v>2597</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>52869</c:v>
+                  <c:v>2617</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>52889</c:v>
+                  <c:v>2637</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>52909</c:v>
+                  <c:v>2657</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>52929</c:v>
+                  <c:v>2677</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>52949</c:v>
+                  <c:v>2697</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>52969</c:v>
+                  <c:v>2717</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>52989</c:v>
+                  <c:v>2737</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>53009</c:v>
+                  <c:v>2757</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>53029</c:v>
+                  <c:v>2777</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>53049</c:v>
+                  <c:v>2797</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>53069</c:v>
+                  <c:v>2817</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>53088</c:v>
+                  <c:v>2836</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>53108</c:v>
+                  <c:v>2856</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>53128</c:v>
+                  <c:v>2876</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>53148</c:v>
+                  <c:v>2896</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>53168</c:v>
+                  <c:v>2916</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>53188</c:v>
+                  <c:v>2936</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>53208</c:v>
+                  <c:v>2956</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>53228</c:v>
+                  <c:v>2976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10634,6 +10634,7 @@
         <c:axId val="606058424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -10723,7 +10724,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -11577,7 +11578,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AD$1</c15:sqref>
@@ -11604,7 +11605,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$V$2:$V$11</c15:sqref>
@@ -11649,7 +11650,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AD$2:$AD$11</c15:sqref>
@@ -11692,7 +11693,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-C3DA-4B88-8958-4F72DC2C4797}"/>
                   </c:ext>
@@ -11705,7 +11706,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AE$1</c15:sqref>
@@ -11732,7 +11733,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$V$2:$V$11</c15:sqref>
@@ -11777,7 +11778,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AE$2:$AE$11</c15:sqref>
@@ -11820,7 +11821,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-C3DA-4B88-8958-4F72DC2C4797}"/>
                   </c:ext>
@@ -11833,7 +11834,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AF$1</c15:sqref>
@@ -11860,7 +11861,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$V$2:$V$11</c15:sqref>
@@ -11905,7 +11906,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AF$2:$AF$11</c15:sqref>
@@ -11948,7 +11949,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-C3DA-4B88-8958-4F72DC2C4797}"/>
                   </c:ext>
@@ -11961,7 +11962,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AG$1</c15:sqref>
@@ -11988,7 +11989,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$V$2:$V$11</c15:sqref>
@@ -12033,7 +12034,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AG$2:$AG$11</c15:sqref>
@@ -12076,7 +12077,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-C3DA-4B88-8958-4F72DC2C4797}"/>
                   </c:ext>
@@ -12089,7 +12090,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AH$1</c15:sqref>
@@ -12116,7 +12117,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$V$2:$V$11</c15:sqref>
@@ -12161,7 +12162,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AH$2:$AH$11</c15:sqref>
@@ -12204,7 +12205,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-C3DA-4B88-8958-4F72DC2C4797}"/>
                   </c:ext>
@@ -41644,8 +41645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA11D019-F8D8-4A31-89A9-4D188CBEEE1E}">
   <dimension ref="A1:AL151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P79" workbookViewId="0">
-      <selection activeCell="AH117" sqref="AH117"/>
+    <sheetView tabSelected="1" topLeftCell="Q14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AK42" sqref="AK42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
